--- a/02-Meteora_Ecommerce _Funcoes.xlsx
+++ b/02-Meteora_Ecommerce _Funcoes.xlsx
@@ -1,53 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://officeresolve-my.sharepoint.com/personal/r_sabino_officeresolve_com_br/Documents/Alura-Ciência de Dados/02 - Excel - Novas Formações/Formação Excel/3196 - Excel 2 - Cálculos- Fórmulas e Funções/Materiais do Curso/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Meu Drive (mz.tears.of.time@gmail.com)\Dev\Cursos\Curso-003\001 - Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="452" documentId="8_{48C75BA4-DA31-4225-B9C8-CE3DAD376FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FB849FE-273F-422A-BA31-1BBDDABF1BC3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77ABF397-43DE-4632-B22B-CBAF2CBEC2EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
+    <workbookView xWindow="33330" yWindow="-120" windowWidth="20640" windowHeight="11040" activeTab="3" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
   </bookViews>
   <sheets>
     <sheet name="Meu Gráfico" sheetId="6" r:id="rId1"/>
     <sheet name="Planilha3" sheetId="5" r:id="rId2"/>
     <sheet name="Produtos" sheetId="1" r:id="rId3"/>
-    <sheet name="Produtos (Com Tabela)" sheetId="2" r:id="rId4"/>
+    <sheet name="Filtro_Avançado" sheetId="8" r:id="rId4"/>
+    <sheet name="Produtos (Com Tabela)" sheetId="2" r:id="rId5"/>
+    <sheet name="Obs" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Produtos!$A$3:$G$42</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="3">Filtro_Avançado!$B$6:$H$6</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Produtos!$A$1:$I$44</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">Filtro_Avançado!$B$2:$C$3</definedName>
     <definedName name="Produtos">Produtos!$A$3:$A$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="43">
   <si>
     <t>Produtos</t>
   </si>
@@ -162,6 +155,21 @@
   <si>
     <t>Tênis Atitas</t>
   </si>
+  <si>
+    <t>Menu -&gt; Dados -&gt; Classificar ( Classificação por nível )</t>
+  </si>
+  <si>
+    <t>Por exemplo, selecionar 'Categoria' e ordenar por 'A a Z' e adicionar 'preço unitário' e ordenar 'do maior para menor'</t>
+  </si>
+  <si>
+    <t>Irá ordenar a categoria e, dentre as categorias, por maior preço</t>
+  </si>
+  <si>
+    <t>Adicionar Níveis</t>
+  </si>
+  <si>
+    <t>&lt;12</t>
+  </si>
 </sst>
 </file>
 
@@ -170,7 +178,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +238,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -263,7 +294,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -553,12 +584,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -627,6 +688,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -636,7 +699,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -844,7 +916,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Meteora Ecommerce - PLANILHA INICIAL.xlsx]Planilha3!Tabela dinâmica85</c:name>
+    <c:name>[02-Meteora_Ecommerce _Funcoes.xlsx]Planilha3!Tabela dinâmica85</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -2015,7 +2087,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8D58BA28-6F2B-4BE7-9135-3BC55F666805}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="109" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -2026,7 +2098,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="12042321" cy="7500937"/>
+    <xdr:ext cx="9656078" cy="6020849"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -2642,7 +2714,10 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9DDBCA65-023C-4EC1-98AB-9D3EFD52E7AF}" name="Tabela5" displayName="Tabela5" ref="A3:G43" totalsRowCount="1" headerRowDxfId="12">
-  <autoFilter ref="A3:G42" xr:uid="{9DDBCA65-023C-4EC1-98AB-9D3EFD52E7AF}"/>
+  <autoFilter ref="A3:G42" xr:uid="{640CC6A1-AF7E-46D2-9BE4-A70B821B6028}"/>
+  <sortState ref="A4:G42">
+    <sortCondition ref="F3:F42"/>
+  </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{0DC906EA-AFD4-4719-8B69-33FF19C2D8D0}" name="Produtos" totalsRowLabel="Total" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{5868626F-6538-4792-A504-C58671A675E4}" name="Tamanho" dataDxfId="10" totalsRowDxfId="9"/>
@@ -2656,14 +2731,14 @@
       <calculatedColumnFormula>E4*F4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2701,7 +2776,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2807,7 +2882,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2949,7 +3024,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2960,16 +3035,16 @@
   <dimension ref="A3:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>0</v>
       </c>
@@ -2977,7 +3052,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2985,7 +3060,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2993,7 +3068,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -3001,7 +3076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -3009,7 +3084,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -3017,7 +3092,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -3025,7 +3100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -3033,7 +3108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -3041,7 +3116,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -3049,7 +3124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -3057,7 +3132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -3065,7 +3140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -3073,7 +3148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -3081,7 +3156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -3089,7 +3164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -3097,7 +3172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -3105,7 +3180,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -3113,7 +3188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -3131,33 +3206,34 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="91" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-    </row>
-    <row r="2" spans="1:9" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+    </row>
+    <row r="2" spans="1:9" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3166,7 +3242,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
@@ -3192,9 +3268,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>2</v>
@@ -3203,26 +3279,26 @@
         <v>12</v>
       </c>
       <c r="D4" s="19">
-        <v>25.9</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="E4" s="19">
-        <f t="shared" ref="E4:E42" si="0">D4-(D4*$I$4)</f>
-        <v>23.31</v>
+        <f>D4-(D4*$I$4)</f>
+        <v>59.31</v>
       </c>
       <c r="F4" s="20">
         <v>12</v>
       </c>
       <c r="G4" s="19">
         <f>E4*F4</f>
-        <v>279.71999999999997</v>
+        <v>711.72</v>
       </c>
       <c r="I4" s="30">
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>3</v>
@@ -3231,23 +3307,23 @@
         <v>12</v>
       </c>
       <c r="D5" s="17">
-        <v>29.9</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="E5" s="17">
-        <f t="shared" si="0"/>
-        <v>26.909999999999997</v>
+        <f>D5-(D5*$I$4)</f>
+        <v>62.910000000000004</v>
       </c>
       <c r="F5" s="21">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G5" s="17">
-        <f t="shared" ref="G5:G42" si="1">E5*F5</f>
-        <v>269.09999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <f>E5*F5</f>
+        <v>943.65000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>4</v>
@@ -3256,921 +3332,921 @@
         <v>12</v>
       </c>
       <c r="D6" s="17">
-        <v>32.9</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="E6" s="17">
-        <f t="shared" si="0"/>
-        <v>29.61</v>
+        <f>D6-(D6*$I$4)</f>
+        <v>63.81</v>
       </c>
       <c r="F6" s="21">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G6" s="17">
-        <f t="shared" si="1"/>
-        <v>177.66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <f>E6*F6</f>
+        <v>829.53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="19">
+        <v>145</v>
+      </c>
+      <c r="E7" s="19">
+        <f>D7-(D7*$I$4)</f>
+        <v>130.5</v>
+      </c>
+      <c r="F7" s="20">
         <v>2</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="19">
-        <v>39.9</v>
-      </c>
-      <c r="E7" s="19">
-        <f t="shared" ref="E7:E9" si="2">D7-(D7*$I$4)</f>
-        <v>35.909999999999997</v>
-      </c>
-      <c r="F7" s="20">
-        <v>12</v>
       </c>
       <c r="G7" s="19">
         <f>E7*F7</f>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="17">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="E8" s="17">
+        <f>D8-(D8*$I$4)</f>
+        <v>233.90999999999997</v>
+      </c>
+      <c r="F8" s="21">
+        <v>1</v>
+      </c>
+      <c r="G8" s="17">
+        <f>E8*F8</f>
+        <v>233.90999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="17">
+        <v>39.9</v>
+      </c>
+      <c r="E9" s="17">
+        <f>D9-(D9*$I$4)</f>
+        <v>35.909999999999997</v>
+      </c>
+      <c r="F9" s="21">
+        <v>11</v>
+      </c>
+      <c r="G9" s="17">
+        <f>E9*F9</f>
+        <v>395.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="17">
+        <v>85.9</v>
+      </c>
+      <c r="E10" s="17">
+        <f>D10-(D10*$I$4)</f>
+        <v>77.31</v>
+      </c>
+      <c r="F10" s="21">
+        <v>8</v>
+      </c>
+      <c r="G10" s="17">
+        <f>E10*F10</f>
+        <v>618.48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="17">
+        <v>89.9</v>
+      </c>
+      <c r="E11" s="17">
+        <f>D11-(D11*$I$4)</f>
+        <v>80.910000000000011</v>
+      </c>
+      <c r="F11" s="21">
+        <v>5</v>
+      </c>
+      <c r="G11" s="17">
+        <f>E11*F11</f>
+        <v>404.55000000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="17">
+        <v>92.9</v>
+      </c>
+      <c r="E12" s="17">
+        <f>D12-(D12*$I$4)</f>
+        <v>83.61</v>
+      </c>
+      <c r="F12" s="21">
+        <v>6</v>
+      </c>
+      <c r="G12" s="17">
+        <f>E12*F12</f>
+        <v>501.65999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="17">
+        <v>44.9</v>
+      </c>
+      <c r="E13" s="17">
+        <f>D13-(D13*$I$4)</f>
+        <v>40.409999999999997</v>
+      </c>
+      <c r="F13" s="21">
+        <v>5</v>
+      </c>
+      <c r="G13" s="17">
+        <f>E13*F13</f>
+        <v>202.04999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="17">
+        <v>46.9</v>
+      </c>
+      <c r="E14" s="17">
+        <f>D14-(D14*$I$4)</f>
+        <v>42.21</v>
+      </c>
+      <c r="F14" s="21">
+        <v>3</v>
+      </c>
+      <c r="G14" s="17">
+        <f>E14*F14</f>
+        <v>126.63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="17">
+        <v>48.9</v>
+      </c>
+      <c r="E15" s="17">
+        <f>D15-(D15*$I$4)</f>
+        <v>44.01</v>
+      </c>
+      <c r="F15" s="21">
+        <v>2</v>
+      </c>
+      <c r="G15" s="17">
+        <f>E15*F15</f>
+        <v>88.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="17">
+        <v>39.9</v>
+      </c>
+      <c r="E16" s="17">
+        <f>D16-(D16*$I$4)</f>
+        <v>35.909999999999997</v>
+      </c>
+      <c r="F16" s="21">
+        <v>12</v>
+      </c>
+      <c r="G16" s="17">
+        <f>E16*F16</f>
         <v>430.91999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="17">
+      <c r="C17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="17">
         <v>39.9</v>
       </c>
-      <c r="E8" s="17">
-        <f t="shared" si="2"/>
+      <c r="E17" s="17">
+        <f>D17-(D17*$I$4)</f>
         <v>35.909999999999997</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F17" s="21">
         <v>10</v>
       </c>
-      <c r="G8" s="17">
-        <f t="shared" ref="G8:G9" si="3">E8*F8</f>
+      <c r="G17" s="17">
+        <f>E17*F17</f>
         <v>359.09999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="17">
+      <c r="C18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="17">
         <v>42.5</v>
       </c>
-      <c r="E9" s="17">
-        <f t="shared" si="2"/>
+      <c r="E18" s="17">
+        <f>D18-(D18*$I$4)</f>
         <v>38.25</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F18" s="21">
         <v>6</v>
       </c>
-      <c r="G9" s="17">
-        <f t="shared" si="3"/>
+      <c r="G18" s="17">
+        <f>E18*F18</f>
         <v>229.5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="17">
+        <v>25.9</v>
+      </c>
+      <c r="E19" s="17">
+        <f>D19-(D19*$I$4)</f>
+        <v>23.31</v>
+      </c>
+      <c r="F19" s="21">
+        <v>12</v>
+      </c>
+      <c r="G19" s="17">
+        <f>E19*F19</f>
+        <v>279.71999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="17">
+        <v>29.9</v>
+      </c>
+      <c r="E20" s="17">
+        <f>D20-(D20*$I$4)</f>
+        <v>26.909999999999997</v>
+      </c>
+      <c r="F20" s="21">
+        <v>10</v>
+      </c>
+      <c r="G20" s="17">
+        <f>E20*F20</f>
+        <v>269.09999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="17">
+        <v>32.9</v>
+      </c>
+      <c r="E21" s="17">
+        <f>D21-(D21*$I$4)</f>
+        <v>29.61</v>
+      </c>
+      <c r="F21" s="21">
+        <v>6</v>
+      </c>
+      <c r="G21" s="17">
+        <f>E21*F21</f>
+        <v>177.66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="17">
+        <v>49.9</v>
+      </c>
+      <c r="E22" s="17">
+        <f>D22-(D22*$I$4)</f>
+        <v>44.91</v>
+      </c>
+      <c r="F22" s="21">
+        <v>21</v>
+      </c>
+      <c r="G22" s="17">
+        <f>E22*F22</f>
+        <v>943.1099999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="17">
+        <v>300</v>
+      </c>
+      <c r="E23" s="17">
+        <f>D23-(D23*$I$4)</f>
+        <v>270</v>
+      </c>
+      <c r="F23" s="21">
+        <v>1</v>
+      </c>
+      <c r="G23" s="17">
+        <f>E23*F23</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="17">
+        <v>302.89999999999998</v>
+      </c>
+      <c r="E24" s="17">
+        <f>D24-(D24*$I$4)</f>
+        <v>272.60999999999996</v>
+      </c>
+      <c r="F24" s="21">
+        <v>2</v>
+      </c>
+      <c r="G24" s="17">
+        <f>E24*F24</f>
+        <v>545.21999999999991</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="17">
+        <v>299.89999999999998</v>
+      </c>
+      <c r="E25" s="17">
+        <f>D25-(D25*$I$4)</f>
+        <v>269.90999999999997</v>
+      </c>
+      <c r="F25" s="21">
+        <v>1</v>
+      </c>
+      <c r="G25" s="17">
+        <f>E25*F25</f>
+        <v>269.90999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="17">
+        <v>249.9</v>
+      </c>
+      <c r="E26" s="17">
+        <f>D26-(D26*$I$4)</f>
+        <v>224.91</v>
+      </c>
+      <c r="F26" s="21">
+        <v>1</v>
+      </c>
+      <c r="G26" s="17">
+        <f>E26*F26</f>
+        <v>224.91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="17">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="E27" s="17">
+        <f>D27-(D27*$I$4)</f>
+        <v>233.90999999999997</v>
+      </c>
+      <c r="F27" s="21">
+        <v>2</v>
+      </c>
+      <c r="G27" s="17">
+        <f>E27*F27</f>
+        <v>467.81999999999994</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="17">
+        <v>299.89999999999998</v>
+      </c>
+      <c r="E28" s="17">
+        <f>D28-(D28*$I$4)</f>
+        <v>269.90999999999997</v>
+      </c>
+      <c r="F28" s="21">
+        <v>1</v>
+      </c>
+      <c r="G28" s="17">
+        <f>E28*F28</f>
+        <v>269.90999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="17">
+        <v>349.9</v>
+      </c>
+      <c r="E29" s="17">
+        <f>D29-(D29*$I$4)</f>
+        <v>314.90999999999997</v>
+      </c>
+      <c r="F29" s="21">
+        <v>2</v>
+      </c>
+      <c r="G29" s="17">
+        <f>E29*F29</f>
+        <v>629.81999999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D30" s="17">
         <v>399.9</v>
       </c>
-      <c r="E10" s="17">
-        <f t="shared" si="0"/>
+      <c r="E30" s="17">
+        <f>D30-(D30*$I$4)</f>
         <v>359.90999999999997</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F30" s="21">
         <v>3</v>
       </c>
-      <c r="G10" s="17">
-        <f t="shared" si="1"/>
+      <c r="G30" s="17">
+        <f>E30*F30</f>
         <v>1079.73</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="17">
-        <v>349.9</v>
-      </c>
-      <c r="E11" s="17">
-        <f t="shared" si="0"/>
-        <v>314.90999999999997</v>
-      </c>
-      <c r="F11" s="21">
-        <v>0</v>
-      </c>
-      <c r="G11" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="17">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="5">
+        <v>36</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="17">
         <v>249.9</v>
       </c>
-      <c r="E12" s="17">
-        <f t="shared" si="0"/>
+      <c r="E31" s="17">
+        <f>D31-(D31*$I$4)</f>
         <v>224.91</v>
       </c>
-      <c r="F12" s="21">
-        <v>1</v>
-      </c>
-      <c r="G12" s="17">
-        <f t="shared" si="1"/>
-        <v>224.91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="F31" s="21">
+        <v>5</v>
+      </c>
+      <c r="G31" s="17">
+        <f>E31*F31</f>
+        <v>1124.55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5">
+        <v>37</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="17">
+        <v>255</v>
+      </c>
+      <c r="E32" s="17">
+        <f>D32-(D32*$I$4)</f>
+        <v>229.5</v>
+      </c>
+      <c r="F32" s="21">
         <v>3</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="17">
-        <v>259.89999999999998</v>
-      </c>
-      <c r="E13" s="17">
-        <f t="shared" si="0"/>
-        <v>233.90999999999997</v>
-      </c>
-      <c r="F13" s="21">
-        <v>2</v>
-      </c>
-      <c r="G13" s="17">
-        <f t="shared" si="1"/>
-        <v>467.81999999999994</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="17">
-        <v>299.89999999999998</v>
-      </c>
-      <c r="E14" s="17">
-        <f t="shared" si="0"/>
-        <v>269.90999999999997</v>
-      </c>
-      <c r="F14" s="21">
-        <v>1</v>
-      </c>
-      <c r="G14" s="17">
-        <f t="shared" si="1"/>
-        <v>269.90999999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="17">
-        <v>300</v>
-      </c>
-      <c r="E15" s="17">
-        <f t="shared" si="0"/>
-        <v>270</v>
-      </c>
-      <c r="F15" s="21">
-        <v>1</v>
-      </c>
-      <c r="G15" s="17">
-        <f t="shared" ref="G15:G17" si="4">E15*F15</f>
-        <v>270</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="17">
-        <v>302.89999999999998</v>
-      </c>
-      <c r="E16" s="17">
-        <f t="shared" si="0"/>
-        <v>272.60999999999996</v>
-      </c>
-      <c r="F16" s="21">
-        <v>2</v>
-      </c>
-      <c r="G16" s="17">
-        <f t="shared" si="4"/>
-        <v>545.21999999999991</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="17">
-        <v>299.89999999999998</v>
-      </c>
-      <c r="E17" s="17">
-        <f t="shared" si="0"/>
-        <v>269.90999999999997</v>
-      </c>
-      <c r="F17" s="21">
-        <v>1</v>
-      </c>
-      <c r="G17" s="17">
-        <f t="shared" si="4"/>
-        <v>269.90999999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="17">
-        <v>85.9</v>
-      </c>
-      <c r="E18" s="17">
-        <f t="shared" si="0"/>
-        <v>77.31</v>
-      </c>
-      <c r="F18" s="21">
-        <v>8</v>
-      </c>
-      <c r="G18" s="17">
-        <f t="shared" si="1"/>
-        <v>618.48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="17">
-        <v>89.9</v>
-      </c>
-      <c r="E19" s="17">
-        <f t="shared" si="0"/>
-        <v>80.910000000000011</v>
-      </c>
-      <c r="F19" s="21">
-        <v>5</v>
-      </c>
-      <c r="G19" s="17">
-        <f t="shared" si="1"/>
-        <v>404.55000000000007</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="17">
-        <v>92.9</v>
-      </c>
-      <c r="E20" s="17">
-        <f t="shared" si="0"/>
-        <v>83.61</v>
-      </c>
-      <c r="F20" s="21">
-        <v>6</v>
-      </c>
-      <c r="G20" s="17">
-        <f t="shared" si="1"/>
-        <v>501.65999999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="17">
-        <v>140</v>
-      </c>
-      <c r="E21" s="17">
-        <f t="shared" si="0"/>
-        <v>126</v>
-      </c>
-      <c r="F21" s="21">
-        <v>2</v>
-      </c>
-      <c r="G21" s="17">
-        <f t="shared" si="1"/>
-        <v>252</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="17">
-        <v>142.9</v>
-      </c>
-      <c r="E22" s="17">
-        <f t="shared" si="0"/>
-        <v>128.61000000000001</v>
-      </c>
-      <c r="F22" s="21">
-        <v>2</v>
-      </c>
-      <c r="G22" s="17">
-        <f t="shared" si="1"/>
-        <v>257.22000000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="17">
-        <v>146</v>
-      </c>
-      <c r="E23" s="17">
-        <f t="shared" si="0"/>
-        <v>131.4</v>
-      </c>
-      <c r="F23" s="21">
-        <v>2</v>
-      </c>
-      <c r="G23" s="17">
-        <f t="shared" si="1"/>
-        <v>262.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="17">
-        <v>89.9</v>
-      </c>
-      <c r="E24" s="17">
-        <f t="shared" si="0"/>
-        <v>80.910000000000011</v>
-      </c>
-      <c r="F24" s="21">
-        <v>3</v>
-      </c>
-      <c r="G24" s="17">
-        <f t="shared" ref="G24:G26" si="5">E24*F24</f>
-        <v>242.73000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="17">
-        <v>91.4</v>
-      </c>
-      <c r="E25" s="17">
-        <f t="shared" si="0"/>
-        <v>82.26</v>
-      </c>
-      <c r="F25" s="21">
-        <v>0</v>
-      </c>
-      <c r="G25" s="17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="17">
-        <v>93.5</v>
-      </c>
-      <c r="E26" s="17">
-        <f t="shared" si="0"/>
-        <v>84.15</v>
-      </c>
-      <c r="F26" s="21">
-        <v>2</v>
-      </c>
-      <c r="G26" s="17">
-        <f t="shared" si="5"/>
-        <v>168.3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="17">
-        <v>65.900000000000006</v>
-      </c>
-      <c r="E27" s="17">
-        <f t="shared" si="0"/>
-        <v>59.31</v>
-      </c>
-      <c r="F27" s="21">
-        <v>12</v>
-      </c>
-      <c r="G27" s="17">
-        <f t="shared" si="1"/>
-        <v>711.72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="17">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="E28" s="17">
-        <f t="shared" si="0"/>
-        <v>62.910000000000004</v>
-      </c>
-      <c r="F28" s="21">
-        <v>15</v>
-      </c>
-      <c r="G28" s="17">
-        <f t="shared" si="1"/>
-        <v>943.65000000000009</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="17">
-        <v>70.900000000000006</v>
-      </c>
-      <c r="E29" s="17">
-        <f t="shared" si="0"/>
-        <v>63.81</v>
-      </c>
-      <c r="F29" s="21">
-        <v>13</v>
-      </c>
-      <c r="G29" s="17">
-        <f t="shared" si="1"/>
-        <v>829.53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="17">
-        <v>44.9</v>
-      </c>
-      <c r="E30" s="17">
-        <f t="shared" si="0"/>
-        <v>40.409999999999997</v>
-      </c>
-      <c r="F30" s="21">
-        <v>5</v>
-      </c>
-      <c r="G30" s="17">
-        <f t="shared" si="1"/>
-        <v>202.04999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="17">
-        <v>46.9</v>
-      </c>
-      <c r="E31" s="17">
-        <f t="shared" si="0"/>
-        <v>42.21</v>
-      </c>
-      <c r="F31" s="21">
-        <v>3</v>
-      </c>
-      <c r="G31" s="17">
-        <f t="shared" si="1"/>
-        <v>126.63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="17">
-        <v>48.9</v>
-      </c>
-      <c r="E32" s="17">
-        <f t="shared" si="0"/>
-        <v>44.01</v>
-      </c>
-      <c r="F32" s="21">
-        <v>2</v>
-      </c>
       <c r="G32" s="17">
-        <f t="shared" si="1"/>
-        <v>88.02</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <f>E32*F32</f>
+        <v>688.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" s="5">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="17">
-        <v>199.9</v>
+        <v>259.89999999999998</v>
       </c>
       <c r="E33" s="17">
-        <f t="shared" si="0"/>
-        <v>179.91</v>
+        <f>D33-(D33*$I$4)</f>
+        <v>233.90999999999997</v>
       </c>
       <c r="F33" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <f>E33*F33</f>
+        <v>233.90999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="5">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="17">
-        <v>249.9</v>
+        <v>199.9</v>
       </c>
       <c r="E34" s="17">
-        <f t="shared" si="0"/>
-        <v>224.91</v>
+        <f>D34-(D34*$I$4)</f>
+        <v>179.91</v>
       </c>
       <c r="F34" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="17">
-        <f t="shared" si="1"/>
-        <v>224.91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <f>E34*F34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="5">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="17">
-        <v>259.89999999999998</v>
+        <v>249.9</v>
       </c>
       <c r="E35" s="17">
-        <f t="shared" si="0"/>
-        <v>233.90999999999997</v>
+        <f>D35-(D35*$I$4)</f>
+        <v>224.91</v>
       </c>
       <c r="F35" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <f>E35*F35</f>
+        <v>224.91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="5">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="17">
-        <v>249.9</v>
+        <v>259.89999999999998</v>
       </c>
       <c r="E36" s="17">
-        <f t="shared" ref="E36:E38" si="6">D36-(D36*$I$4)</f>
-        <v>224.91</v>
+        <f>D36-(D36*$I$4)</f>
+        <v>233.90999999999997</v>
       </c>
       <c r="F36" s="21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G36" s="17">
-        <f t="shared" ref="G36:G38" si="7">E36*F36</f>
-        <v>1124.55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <f>E36*F36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="5">
-        <v>37</v>
+        <v>28</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17">
-        <v>255</v>
+        <v>89.9</v>
       </c>
       <c r="E37" s="17">
-        <f t="shared" si="6"/>
-        <v>229.5</v>
+        <f>D37-(D37*$I$4)</f>
+        <v>80.910000000000011</v>
       </c>
       <c r="F37" s="21">
         <v>3</v>
       </c>
       <c r="G37" s="17">
-        <f t="shared" si="7"/>
-        <v>688.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <f>E37*F37</f>
+        <v>242.73000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="5">
-        <v>38</v>
+        <v>28</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17">
-        <v>259.89999999999998</v>
+        <v>91.4</v>
       </c>
       <c r="E38" s="17">
-        <f t="shared" si="6"/>
-        <v>233.90999999999997</v>
+        <f>D38-(D38*$I$4)</f>
+        <v>82.26</v>
       </c>
       <c r="F38" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38" s="17">
-        <f t="shared" si="7"/>
-        <v>233.90999999999997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <f>E38*F38</f>
+        <v>164.52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17">
-        <v>259.89999999999998</v>
+        <v>93.5</v>
       </c>
       <c r="E39" s="17">
-        <f t="shared" si="0"/>
-        <v>233.90999999999997</v>
+        <f>D39-(D39*$I$4)</f>
+        <v>84.15</v>
       </c>
       <c r="F39" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" s="17">
-        <f t="shared" si="1"/>
-        <v>233.90999999999997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <f>E39*F39</f>
+        <v>168.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D40" s="17">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E40" s="17">
-        <f t="shared" ref="E40" si="8">D40-(D40*$I$4)</f>
-        <v>130.5</v>
+        <f>D40-(D40*$I$4)</f>
+        <v>126</v>
       </c>
       <c r="F40" s="21">
         <v>2</v>
       </c>
       <c r="G40" s="17">
-        <f t="shared" ref="G40" si="9">E40*F40</f>
-        <v>261</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+        <f>E40*F40</f>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17">
-        <v>39.9</v>
+        <v>142.9</v>
       </c>
       <c r="E41" s="17">
-        <f t="shared" si="0"/>
-        <v>35.909999999999997</v>
+        <f>D41-(D41*$I$4)</f>
+        <v>128.61000000000001</v>
       </c>
       <c r="F41" s="21">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G41" s="17">
-        <f t="shared" si="1"/>
-        <v>395.01</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f>E41*F41</f>
+        <v>257.22000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D42" s="18">
-        <v>49.9</v>
+        <v>146</v>
       </c>
       <c r="E42" s="18">
-        <f t="shared" si="0"/>
-        <v>44.91</v>
+        <f>D42-(D42*$I$4)</f>
+        <v>131.4</v>
       </c>
       <c r="F42" s="22">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="G42" s="18">
-        <f t="shared" si="1"/>
-        <v>943.1099999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <f>E42*F42</f>
+        <v>262.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -4179,30 +4255,39 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="32" t="s">
+    <row r="44" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="34"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="36"/>
       <c r="D44" s="24">
         <f>SUM(D4:D42)</f>
         <v>5962.2999999999984</v>
       </c>
       <c r="E44" s="26">
         <f>SUM(E4:E42)</f>
-        <v>5366.0699999999988</v>
+        <v>5366.0699999999979</v>
       </c>
       <c r="F44" s="25">
         <f>SUM(F4:F42)</f>
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G44" s="26">
         <f>SUM(G4:G42)</f>
-        <v>14587.74</v>
+        <v>15382.079999999994</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:G42" xr:uid="{4EDFB840-FB22-4F56-985C-BF52107E03A5}">
+    <sortState ref="A4:G42">
+      <sortCondition ref="A3:A42"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="A4:G42">
+    <sortCondition ref="C4:C42" customList="Vestuário,Acessórios,Calçado"/>
+    <sortCondition ref="B4:B42" customList="P,M,G,Único"/>
+  </sortState>
   <mergeCells count="2">
     <mergeCell ref="A44:C44"/>
     <mergeCell ref="A1:G1"/>
@@ -4213,38 +4298,286 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7326DF80-0DFA-4F65-BD4E-022C0B3B8C1C}">
+  <dimension ref="B1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="17">
+        <v>92.9</v>
+      </c>
+      <c r="F7" s="17">
+        <v>83.61</v>
+      </c>
+      <c r="G7" s="21">
+        <v>6</v>
+      </c>
+      <c r="H7" s="17">
+        <v>501.65999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="17">
+        <v>48.9</v>
+      </c>
+      <c r="F8" s="17">
+        <v>44.01</v>
+      </c>
+      <c r="G8" s="21">
+        <v>2</v>
+      </c>
+      <c r="H8" s="17">
+        <v>88.02</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="17">
+        <v>42.5</v>
+      </c>
+      <c r="F9" s="17">
+        <v>38.25</v>
+      </c>
+      <c r="G9" s="21">
+        <v>6</v>
+      </c>
+      <c r="H9" s="17">
+        <v>229.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="17">
+        <v>32.9</v>
+      </c>
+      <c r="F10" s="17">
+        <v>29.61</v>
+      </c>
+      <c r="G10" s="21">
+        <v>6</v>
+      </c>
+      <c r="H10" s="17">
+        <v>177.66</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="17">
+        <v>299.89999999999998</v>
+      </c>
+      <c r="F11" s="17">
+        <v>269.90999999999997</v>
+      </c>
+      <c r="G11" s="21">
+        <v>1</v>
+      </c>
+      <c r="H11" s="17">
+        <v>269.90999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="17">
+        <v>299.89999999999998</v>
+      </c>
+      <c r="F12" s="17">
+        <v>269.90999999999997</v>
+      </c>
+      <c r="G12" s="21">
+        <v>1</v>
+      </c>
+      <c r="H12" s="17">
+        <v>269.90999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="17">
+        <v>93.5</v>
+      </c>
+      <c r="F13" s="17">
+        <v>84.15</v>
+      </c>
+      <c r="G13" s="21">
+        <v>2</v>
+      </c>
+      <c r="H13" s="17">
+        <v>168.3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="18">
+        <v>146</v>
+      </c>
+      <c r="F14" s="18">
+        <v>131.4</v>
+      </c>
+      <c r="G14" s="22">
+        <v>2</v>
+      </c>
+      <c r="H14" s="18">
+        <v>262.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1525D4F-4FEE-4357-9658-5E1916B70D88}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-    </row>
-    <row r="2" spans="1:9" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+    </row>
+    <row r="2" spans="1:9" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4253,7 +4586,7 @@
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -4279,137 +4612,137 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>2</v>
+        <v>36</v>
+      </c>
+      <c r="B4" s="11">
+        <v>36</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" s="19">
-        <v>25.9</v>
+        <v>199.9</v>
       </c>
       <c r="E4" s="19">
         <f t="shared" ref="E4:E42" si="0">D4-(D4*$I$4)</f>
-        <v>23.31</v>
+        <v>179.91</v>
       </c>
       <c r="F4" s="20">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G4" s="19">
-        <f>E4*F4</f>
-        <v>279.71999999999997</v>
+        <f t="shared" ref="G4:G42" si="1">E4*F4</f>
+        <v>0</v>
       </c>
       <c r="I4" s="28">
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="B5" s="5">
+        <v>38</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="17">
-        <v>29.9</v>
+        <v>259.89999999999998</v>
       </c>
       <c r="E5" s="17">
         <f t="shared" si="0"/>
-        <v>26.909999999999997</v>
+        <v>233.90999999999997</v>
       </c>
       <c r="F5" s="21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G5" s="17">
-        <f t="shared" ref="G5:G42" si="1">E5*F5</f>
-        <v>269.09999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="17">
-        <v>32.9</v>
+        <v>249.9</v>
       </c>
       <c r="E6" s="17">
         <f t="shared" si="0"/>
-        <v>29.61</v>
+        <v>224.91</v>
       </c>
       <c r="F6" s="21">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G6" s="17">
         <f t="shared" si="1"/>
-        <v>177.66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>224.91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="19">
-        <v>39.9</v>
+        <v>299.89999999999998</v>
       </c>
       <c r="E7" s="19">
         <f t="shared" si="0"/>
-        <v>35.909999999999997</v>
+        <v>269.90999999999997</v>
       </c>
       <c r="F7" s="20">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G7" s="19">
-        <f>E7*F7</f>
-        <v>430.91999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>269.90999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="17">
-        <v>39.9</v>
+        <v>300</v>
       </c>
       <c r="E8" s="17">
         <f t="shared" si="0"/>
-        <v>35.909999999999997</v>
+        <v>270</v>
       </c>
       <c r="F8" s="21">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G8" s="17">
-        <f t="shared" ref="G8:G9" si="2">E8*F8</f>
-        <v>359.09999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>4</v>
@@ -4418,248 +4751,248 @@
         <v>12</v>
       </c>
       <c r="D9" s="17">
-        <v>42.5</v>
+        <v>299.89999999999998</v>
       </c>
       <c r="E9" s="17">
         <f t="shared" si="0"/>
-        <v>38.25</v>
+        <v>269.90999999999997</v>
       </c>
       <c r="F9" s="21">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G9" s="17">
-        <f t="shared" si="2"/>
-        <v>229.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>269.90999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>8</v>
+        <v>36</v>
+      </c>
+      <c r="B10" s="5">
+        <v>37</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="17">
-        <v>399.9</v>
+        <v>249.9</v>
       </c>
       <c r="E10" s="17">
         <f t="shared" si="0"/>
-        <v>359.90999999999997</v>
+        <v>224.91</v>
       </c>
       <c r="F10" s="21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10" s="17">
         <f t="shared" si="1"/>
-        <v>1079.73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>224.91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>8</v>
+        <v>37</v>
+      </c>
+      <c r="B11" s="5">
+        <v>38</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" s="17">
-        <v>349.9</v>
+        <v>259.89999999999998</v>
       </c>
       <c r="E11" s="17">
         <f t="shared" si="0"/>
-        <v>314.90999999999997</v>
+        <v>233.90999999999997</v>
       </c>
       <c r="F11" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="17">
         <f t="shared" si="1"/>
-        <v>629.81999999999994</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>233.90999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" s="17">
-        <v>249.9</v>
+        <v>259.89999999999998</v>
       </c>
       <c r="E12" s="17">
         <f t="shared" si="0"/>
-        <v>224.91</v>
+        <v>233.90999999999997</v>
       </c>
       <c r="F12" s="21">
         <v>1</v>
       </c>
       <c r="G12" s="17">
         <f t="shared" si="1"/>
-        <v>224.91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>233.90999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" s="17">
-        <v>259.89999999999998</v>
+        <v>349.9</v>
       </c>
       <c r="E13" s="17">
         <f t="shared" si="0"/>
-        <v>233.90999999999997</v>
+        <v>314.90999999999997</v>
       </c>
       <c r="F13" s="21">
         <v>2</v>
       </c>
       <c r="G13" s="17">
         <f t="shared" si="1"/>
-        <v>467.81999999999994</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>629.81999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="17">
-        <v>299.89999999999998</v>
+        <v>259.89999999999998</v>
       </c>
       <c r="E14" s="17">
         <f t="shared" si="0"/>
-        <v>269.90999999999997</v>
+        <v>233.90999999999997</v>
       </c>
       <c r="F14" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="17">
         <f t="shared" si="1"/>
-        <v>269.90999999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>467.81999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="17">
-        <v>300</v>
+        <v>302.89999999999998</v>
       </c>
       <c r="E15" s="17">
         <f t="shared" si="0"/>
-        <v>270</v>
+        <v>272.60999999999996</v>
       </c>
       <c r="F15" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="17">
         <f t="shared" si="1"/>
-        <v>270</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>545.21999999999991</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="17">
-        <v>302.89999999999998</v>
+        <v>140</v>
       </c>
       <c r="E16" s="17">
         <f t="shared" si="0"/>
-        <v>272.60999999999996</v>
+        <v>126</v>
       </c>
       <c r="F16" s="21">
         <v>2</v>
       </c>
       <c r="G16" s="17">
         <f t="shared" si="1"/>
-        <v>545.21999999999991</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="17">
-        <v>299.89999999999998</v>
+        <v>142.9</v>
       </c>
       <c r="E17" s="17">
         <f t="shared" si="0"/>
-        <v>269.90999999999997</v>
+        <v>128.61000000000001</v>
       </c>
       <c r="F17" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="17">
         <f t="shared" si="1"/>
-        <v>269.90999999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>257.22000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="17">
-        <v>85.9</v>
+        <v>146</v>
       </c>
       <c r="E18" s="17">
         <f t="shared" si="0"/>
-        <v>77.31</v>
+        <v>131.4</v>
       </c>
       <c r="F18" s="21">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G18" s="17">
         <f t="shared" si="1"/>
-        <v>618.48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>262.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>3</v>
@@ -4668,23 +5001,23 @@
         <v>12</v>
       </c>
       <c r="D19" s="17">
-        <v>89.9</v>
+        <v>91.4</v>
       </c>
       <c r="E19" s="17">
         <f t="shared" si="0"/>
-        <v>80.910000000000011</v>
+        <v>82.26</v>
       </c>
       <c r="F19" s="21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G19" s="17">
         <f t="shared" si="1"/>
-        <v>404.55000000000007</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>164.52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>4</v>
@@ -4693,96 +5026,96 @@
         <v>12</v>
       </c>
       <c r="D20" s="17">
-        <v>92.9</v>
+        <v>93.5</v>
       </c>
       <c r="E20" s="17">
         <f t="shared" si="0"/>
-        <v>83.61</v>
+        <v>84.15</v>
       </c>
       <c r="F20" s="21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G20" s="17">
         <f t="shared" si="1"/>
-        <v>501.65999999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>168.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="17">
-        <v>140</v>
+        <v>48.9</v>
       </c>
       <c r="E21" s="17">
         <f t="shared" si="0"/>
-        <v>126</v>
+        <v>44.01</v>
       </c>
       <c r="F21" s="21">
         <v>2</v>
       </c>
       <c r="G21" s="17">
         <f t="shared" si="1"/>
-        <v>252</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>88.02</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" s="17">
-        <v>142.9</v>
+        <v>145</v>
       </c>
       <c r="E22" s="17">
         <f t="shared" si="0"/>
-        <v>128.61000000000001</v>
+        <v>130.5</v>
       </c>
       <c r="F22" s="21">
         <v>2</v>
       </c>
       <c r="G22" s="17">
         <f t="shared" si="1"/>
-        <v>257.22000000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" s="17">
-        <v>146</v>
+        <v>399.9</v>
       </c>
       <c r="E23" s="17">
         <f t="shared" si="0"/>
-        <v>131.4</v>
+        <v>359.90999999999997</v>
       </c>
       <c r="F23" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23" s="17">
         <f t="shared" si="1"/>
-        <v>262.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1079.73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
@@ -4807,9 +5140,9 @@
         <v>242.73000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>3</v>
@@ -4818,173 +5151,173 @@
         <v>12</v>
       </c>
       <c r="D25" s="17">
-        <v>91.4</v>
+        <v>46.9</v>
       </c>
       <c r="E25" s="17">
         <f t="shared" si="0"/>
-        <v>82.26</v>
+        <v>42.21</v>
       </c>
       <c r="F25" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G25" s="17">
         <f t="shared" si="1"/>
-        <v>164.52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>126.63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>4</v>
+        <v>37</v>
+      </c>
+      <c r="B26" s="5">
+        <v>37</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D26" s="17">
-        <v>93.5</v>
+        <v>255</v>
       </c>
       <c r="E26" s="17">
         <f t="shared" si="0"/>
-        <v>84.15</v>
+        <v>229.5</v>
       </c>
       <c r="F26" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" s="17">
         <f t="shared" si="1"/>
-        <v>168.3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>688.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="17">
-        <v>65.900000000000006</v>
+        <v>89.9</v>
       </c>
       <c r="E27" s="17">
         <f t="shared" si="0"/>
-        <v>59.31</v>
+        <v>80.910000000000011</v>
       </c>
       <c r="F27" s="21">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G27" s="17">
         <f t="shared" si="1"/>
-        <v>711.72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>404.55000000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="17">
-        <v>69.900000000000006</v>
+        <v>44.9</v>
       </c>
       <c r="E28" s="17">
         <f t="shared" si="0"/>
-        <v>62.910000000000004</v>
+        <v>40.409999999999997</v>
       </c>
       <c r="F28" s="21">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G28" s="17">
         <f t="shared" si="1"/>
-        <v>943.65000000000009</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>202.04999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>4</v>
+        <v>37</v>
+      </c>
+      <c r="B29" s="5">
+        <v>36</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D29" s="17">
-        <v>70.900000000000006</v>
+        <v>249.9</v>
       </c>
       <c r="E29" s="17">
         <f t="shared" si="0"/>
-        <v>63.81</v>
+        <v>224.91</v>
       </c>
       <c r="F29" s="21">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G29" s="17">
         <f t="shared" si="1"/>
-        <v>829.53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1124.55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="17">
-        <v>44.9</v>
+        <v>32.9</v>
       </c>
       <c r="E30" s="17">
         <f t="shared" si="0"/>
-        <v>40.409999999999997</v>
+        <v>29.61</v>
       </c>
       <c r="F30" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G30" s="17">
         <f t="shared" si="1"/>
-        <v>202.04999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>177.66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="17">
-        <v>46.9</v>
+        <v>42.5</v>
       </c>
       <c r="E31" s="17">
         <f t="shared" si="0"/>
-        <v>42.21</v>
+        <v>38.25</v>
       </c>
       <c r="F31" s="21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G31" s="17">
         <f t="shared" si="1"/>
-        <v>126.63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>229.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>4</v>
@@ -4993,246 +5326,246 @@
         <v>12</v>
       </c>
       <c r="D32" s="17">
-        <v>48.9</v>
+        <v>92.9</v>
       </c>
       <c r="E32" s="17">
         <f t="shared" si="0"/>
-        <v>44.01</v>
+        <v>83.61</v>
       </c>
       <c r="F32" s="21">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G32" s="17">
         <f t="shared" si="1"/>
-        <v>88.02</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>501.65999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="5">
-        <v>36</v>
+        <v>25</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17">
-        <v>199.9</v>
+        <v>85.9</v>
       </c>
       <c r="E33" s="17">
         <f t="shared" si="0"/>
-        <v>179.91</v>
+        <v>77.31</v>
       </c>
       <c r="F33" s="21">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G33" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>618.48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="5">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D34" s="17">
-        <v>249.9</v>
+        <v>29.9</v>
       </c>
       <c r="E34" s="17">
         <f t="shared" si="0"/>
-        <v>224.91</v>
+        <v>26.909999999999997</v>
       </c>
       <c r="F34" s="21">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G34" s="17">
         <f t="shared" si="1"/>
-        <v>224.91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>269.09999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="5">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17">
-        <v>259.89999999999998</v>
+        <v>39.9</v>
       </c>
       <c r="E35" s="17">
         <f t="shared" si="0"/>
-        <v>233.90999999999997</v>
+        <v>35.909999999999997</v>
       </c>
       <c r="F35" s="21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G35" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>359.09999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="5">
-        <v>36</v>
+        <v>6</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36" s="17">
-        <v>249.9</v>
+        <v>39.9</v>
       </c>
       <c r="E36" s="17">
         <f t="shared" si="0"/>
-        <v>224.91</v>
+        <v>35.909999999999997</v>
       </c>
       <c r="F36" s="21">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G36" s="17">
         <f t="shared" si="1"/>
-        <v>1124.55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <v>395.01</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="5">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17">
-        <v>255</v>
+        <v>25.9</v>
       </c>
       <c r="E37" s="17">
         <f t="shared" si="0"/>
-        <v>229.5</v>
+        <v>23.31</v>
       </c>
       <c r="F37" s="21">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G37" s="17">
         <f t="shared" si="1"/>
-        <v>688.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>279.71999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="5">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17">
-        <v>259.89999999999998</v>
+        <v>39.9</v>
       </c>
       <c r="E38" s="17">
         <f t="shared" si="0"/>
-        <v>233.90999999999997</v>
+        <v>35.909999999999997</v>
       </c>
       <c r="F38" s="21">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G38" s="17">
         <f t="shared" si="1"/>
-        <v>233.90999999999997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>430.91999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17">
-        <v>259.89999999999998</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="E39" s="17">
         <f t="shared" si="0"/>
-        <v>233.90999999999997</v>
+        <v>59.31</v>
       </c>
       <c r="F39" s="21">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G39" s="17">
         <f t="shared" si="1"/>
-        <v>233.90999999999997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>711.72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D40" s="17">
-        <v>145</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="E40" s="17">
         <f t="shared" si="0"/>
-        <v>130.5</v>
+        <v>63.81</v>
       </c>
       <c r="F40" s="21">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G40" s="17">
         <f t="shared" si="1"/>
-        <v>261</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+        <v>829.53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17">
-        <v>39.9</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="E41" s="17">
         <f t="shared" si="0"/>
-        <v>35.909999999999997</v>
+        <v>62.910000000000004</v>
       </c>
       <c r="F41" s="21">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G41" s="17">
         <f t="shared" si="1"/>
-        <v>395.01</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>943.65000000000009</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>7</v>
       </c>
@@ -5257,17 +5590,17 @@
         <v>943.1099999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="16">
         <f>SUBTOTAL(109,Tabela5[Preço Unitário])</f>
-        <v>5962.2999999999984</v>
+        <v>5962.2999999999938</v>
       </c>
       <c r="E43" s="16">
         <f>SUBTOTAL(109,Tabela5[Preço C/ Desconto])</f>
-        <v>5366.0699999999988</v>
+        <v>5366.07</v>
       </c>
       <c r="F43" s="1">
         <f>SUBTOTAL(109,Tabela5[Qtd])</f>
@@ -5275,7 +5608,7 @@
       </c>
       <c r="G43" s="16">
         <f>SUBTOTAL(109,Tabela5[Valor Total])</f>
-        <v>15382.079999999998</v>
+        <v>15382.08</v>
       </c>
     </row>
   </sheetData>
@@ -5288,4 +5621,40 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D76905C-547A-4F6E-A046-A2B2ECB578CD}">
+  <dimension ref="A2:G4"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/02-Meteora_Ecommerce _Funcoes.xlsx
+++ b/02-Meteora_Ecommerce _Funcoes.xlsx
@@ -8,28 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Meu Drive (mz.tears.of.time@gmail.com)\Dev\Cursos\Curso-003\001 - Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77ABF397-43DE-4632-B22B-CBAF2CBEC2EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D292C8-F2B8-4DF4-97BA-22B0E1A586F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33330" yWindow="-120" windowWidth="20640" windowHeight="11040" activeTab="3" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
+    <workbookView xWindow="34260" yWindow="-120" windowWidth="20640" windowHeight="11040" firstSheet="1" activeTab="3" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
   </bookViews>
   <sheets>
     <sheet name="Meu Gráfico" sheetId="6" r:id="rId1"/>
     <sheet name="Planilha3" sheetId="5" r:id="rId2"/>
     <sheet name="Produtos" sheetId="1" r:id="rId3"/>
-    <sheet name="Filtro_Avançado" sheetId="8" r:id="rId4"/>
-    <sheet name="Produtos (Com Tabela)" sheetId="2" r:id="rId5"/>
-    <sheet name="Obs" sheetId="7" r:id="rId6"/>
+    <sheet name="Planilha1" sheetId="9" r:id="rId4"/>
+    <sheet name="Filtro_Avançado" sheetId="8" r:id="rId5"/>
+    <sheet name="Produtos (Com Tabela)" sheetId="2" r:id="rId6"/>
+    <sheet name="Planilha2" sheetId="10" r:id="rId7"/>
+    <sheet name="Obs" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Produtos!$A$3:$G$42</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="3">Filtro_Avançado!$B$6:$H$6</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="4">Filtro_Avançado!$B$6:$H$6</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Produtos!$A$1:$I$44</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="3">Filtro_Avançado!$B$2:$C$3</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="4">Filtro_Avançado!$B$2:$C$3</definedName>
+    <definedName name="Int_Nome_Produto">Produtos!$A$4:$A$42</definedName>
+    <definedName name="Int_Nome_Produtos">Produtos!$A$4:$A$42</definedName>
+    <definedName name="int_Qtd">Produtos!$F$4:$F$42</definedName>
     <definedName name="Produtos">Produtos!$A$3:$A$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="48">
   <si>
     <t>Produtos</t>
   </si>
@@ -170,6 +175,21 @@
   <si>
     <t>&lt;12</t>
   </si>
+  <si>
+    <t>Meus Números</t>
+  </si>
+  <si>
+    <t>dashboard'</t>
+  </si>
+  <si>
+    <t>Contagem de Produtos</t>
+  </si>
+  <si>
+    <t>Soma de Qtde em Estoque</t>
+  </si>
+  <si>
+    <t>Tênis*</t>
+  </si>
 </sst>
 </file>
 
@@ -178,7 +198,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,8 +281,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,6 +345,12 @@
         <bgColor theme="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -619,7 +677,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -690,6 +748,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -702,14 +769,22 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2087,7 +2162,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8D58BA28-6F2B-4BE7-9135-3BC55F666805}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="109" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="101" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -2098,7 +2173,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9656078" cy="6020849"/>
+    <xdr:ext cx="9640957" cy="6013174"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -3035,7 +3110,7 @@
   <dimension ref="A3:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3206,8 +3281,9 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="91" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3:F4"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C45" sqref="C45"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3223,15 +3299,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="2" spans="1:9" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
@@ -3282,14 +3358,14 @@
         <v>65.900000000000006</v>
       </c>
       <c r="E4" s="19">
-        <f>D4-(D4*$I$4)</f>
+        <f t="shared" ref="E4:E42" si="0">D4-(D4*$I$4)</f>
         <v>59.31</v>
       </c>
       <c r="F4" s="20">
         <v>12</v>
       </c>
       <c r="G4" s="19">
-        <f>E4*F4</f>
+        <f t="shared" ref="G4:G42" si="1">E4*F4</f>
         <v>711.72</v>
       </c>
       <c r="I4" s="30">
@@ -3310,14 +3386,14 @@
         <v>69.900000000000006</v>
       </c>
       <c r="E5" s="17">
-        <f>D5-(D5*$I$4)</f>
+        <f t="shared" si="0"/>
         <v>62.910000000000004</v>
       </c>
       <c r="F5" s="21">
         <v>15</v>
       </c>
       <c r="G5" s="17">
-        <f>E5*F5</f>
+        <f t="shared" si="1"/>
         <v>943.65000000000009</v>
       </c>
     </row>
@@ -3335,14 +3411,14 @@
         <v>70.900000000000006</v>
       </c>
       <c r="E6" s="17">
-        <f>D6-(D6*$I$4)</f>
+        <f t="shared" si="0"/>
         <v>63.81</v>
       </c>
       <c r="F6" s="21">
         <v>13</v>
       </c>
       <c r="G6" s="17">
-        <f>E6*F6</f>
+        <f t="shared" si="1"/>
         <v>829.53</v>
       </c>
     </row>
@@ -3360,14 +3436,14 @@
         <v>145</v>
       </c>
       <c r="E7" s="19">
-        <f>D7-(D7*$I$4)</f>
+        <f t="shared" si="0"/>
         <v>130.5</v>
       </c>
       <c r="F7" s="20">
         <v>2</v>
       </c>
       <c r="G7" s="19">
-        <f>E7*F7</f>
+        <f t="shared" si="1"/>
         <v>261</v>
       </c>
     </row>
@@ -3385,14 +3461,14 @@
         <v>259.89999999999998</v>
       </c>
       <c r="E8" s="17">
-        <f>D8-(D8*$I$4)</f>
+        <f t="shared" si="0"/>
         <v>233.90999999999997</v>
       </c>
       <c r="F8" s="21">
         <v>1</v>
       </c>
       <c r="G8" s="17">
-        <f>E8*F8</f>
+        <f t="shared" si="1"/>
         <v>233.90999999999997</v>
       </c>
     </row>
@@ -3410,14 +3486,14 @@
         <v>39.9</v>
       </c>
       <c r="E9" s="17">
-        <f>D9-(D9*$I$4)</f>
+        <f t="shared" si="0"/>
         <v>35.909999999999997</v>
       </c>
       <c r="F9" s="21">
         <v>11</v>
       </c>
       <c r="G9" s="17">
-        <f>E9*F9</f>
+        <f t="shared" si="1"/>
         <v>395.01</v>
       </c>
     </row>
@@ -3435,14 +3511,14 @@
         <v>85.9</v>
       </c>
       <c r="E10" s="17">
-        <f>D10-(D10*$I$4)</f>
+        <f t="shared" si="0"/>
         <v>77.31</v>
       </c>
       <c r="F10" s="21">
         <v>8</v>
       </c>
       <c r="G10" s="17">
-        <f>E10*F10</f>
+        <f t="shared" si="1"/>
         <v>618.48</v>
       </c>
     </row>
@@ -3460,14 +3536,14 @@
         <v>89.9</v>
       </c>
       <c r="E11" s="17">
-        <f>D11-(D11*$I$4)</f>
+        <f t="shared" si="0"/>
         <v>80.910000000000011</v>
       </c>
       <c r="F11" s="21">
         <v>5</v>
       </c>
       <c r="G11" s="17">
-        <f>E11*F11</f>
+        <f t="shared" si="1"/>
         <v>404.55000000000007</v>
       </c>
     </row>
@@ -3485,14 +3561,14 @@
         <v>92.9</v>
       </c>
       <c r="E12" s="17">
-        <f>D12-(D12*$I$4)</f>
+        <f t="shared" si="0"/>
         <v>83.61</v>
       </c>
       <c r="F12" s="21">
         <v>6</v>
       </c>
       <c r="G12" s="17">
-        <f>E12*F12</f>
+        <f t="shared" si="1"/>
         <v>501.65999999999997</v>
       </c>
     </row>
@@ -3510,14 +3586,14 @@
         <v>44.9</v>
       </c>
       <c r="E13" s="17">
-        <f>D13-(D13*$I$4)</f>
+        <f t="shared" si="0"/>
         <v>40.409999999999997</v>
       </c>
       <c r="F13" s="21">
         <v>5</v>
       </c>
       <c r="G13" s="17">
-        <f>E13*F13</f>
+        <f t="shared" si="1"/>
         <v>202.04999999999998</v>
       </c>
     </row>
@@ -3535,14 +3611,14 @@
         <v>46.9</v>
       </c>
       <c r="E14" s="17">
-        <f>D14-(D14*$I$4)</f>
+        <f t="shared" si="0"/>
         <v>42.21</v>
       </c>
       <c r="F14" s="21">
         <v>3</v>
       </c>
       <c r="G14" s="17">
-        <f>E14*F14</f>
+        <f t="shared" si="1"/>
         <v>126.63</v>
       </c>
     </row>
@@ -3560,14 +3636,14 @@
         <v>48.9</v>
       </c>
       <c r="E15" s="17">
-        <f>D15-(D15*$I$4)</f>
+        <f t="shared" si="0"/>
         <v>44.01</v>
       </c>
       <c r="F15" s="21">
         <v>2</v>
       </c>
       <c r="G15" s="17">
-        <f>E15*F15</f>
+        <f t="shared" si="1"/>
         <v>88.02</v>
       </c>
     </row>
@@ -3585,14 +3661,14 @@
         <v>39.9</v>
       </c>
       <c r="E16" s="17">
-        <f>D16-(D16*$I$4)</f>
+        <f t="shared" si="0"/>
         <v>35.909999999999997</v>
       </c>
       <c r="F16" s="21">
         <v>12</v>
       </c>
       <c r="G16" s="17">
-        <f>E16*F16</f>
+        <f t="shared" si="1"/>
         <v>430.91999999999996</v>
       </c>
     </row>
@@ -3610,14 +3686,14 @@
         <v>39.9</v>
       </c>
       <c r="E17" s="17">
-        <f>D17-(D17*$I$4)</f>
+        <f t="shared" si="0"/>
         <v>35.909999999999997</v>
       </c>
       <c r="F17" s="21">
         <v>10</v>
       </c>
       <c r="G17" s="17">
-        <f>E17*F17</f>
+        <f t="shared" si="1"/>
         <v>359.09999999999997</v>
       </c>
     </row>
@@ -3635,14 +3711,14 @@
         <v>42.5</v>
       </c>
       <c r="E18" s="17">
-        <f>D18-(D18*$I$4)</f>
+        <f t="shared" si="0"/>
         <v>38.25</v>
       </c>
       <c r="F18" s="21">
         <v>6</v>
       </c>
       <c r="G18" s="17">
-        <f>E18*F18</f>
+        <f t="shared" si="1"/>
         <v>229.5</v>
       </c>
     </row>
@@ -3660,14 +3736,14 @@
         <v>25.9</v>
       </c>
       <c r="E19" s="17">
-        <f>D19-(D19*$I$4)</f>
+        <f t="shared" si="0"/>
         <v>23.31</v>
       </c>
       <c r="F19" s="21">
         <v>12</v>
       </c>
       <c r="G19" s="17">
-        <f>E19*F19</f>
+        <f t="shared" si="1"/>
         <v>279.71999999999997</v>
       </c>
     </row>
@@ -3685,14 +3761,14 @@
         <v>29.9</v>
       </c>
       <c r="E20" s="17">
-        <f>D20-(D20*$I$4)</f>
+        <f t="shared" si="0"/>
         <v>26.909999999999997</v>
       </c>
       <c r="F20" s="21">
         <v>10</v>
       </c>
       <c r="G20" s="17">
-        <f>E20*F20</f>
+        <f t="shared" si="1"/>
         <v>269.09999999999997</v>
       </c>
     </row>
@@ -3710,14 +3786,14 @@
         <v>32.9</v>
       </c>
       <c r="E21" s="17">
-        <f>D21-(D21*$I$4)</f>
+        <f t="shared" si="0"/>
         <v>29.61</v>
       </c>
       <c r="F21" s="21">
         <v>6</v>
       </c>
       <c r="G21" s="17">
-        <f>E21*F21</f>
+        <f t="shared" si="1"/>
         <v>177.66</v>
       </c>
     </row>
@@ -3735,14 +3811,14 @@
         <v>49.9</v>
       </c>
       <c r="E22" s="17">
-        <f>D22-(D22*$I$4)</f>
+        <f t="shared" si="0"/>
         <v>44.91</v>
       </c>
       <c r="F22" s="21">
         <v>21</v>
       </c>
       <c r="G22" s="17">
-        <f>E22*F22</f>
+        <f t="shared" si="1"/>
         <v>943.1099999999999</v>
       </c>
     </row>
@@ -3760,14 +3836,14 @@
         <v>300</v>
       </c>
       <c r="E23" s="17">
-        <f>D23-(D23*$I$4)</f>
+        <f t="shared" si="0"/>
         <v>270</v>
       </c>
       <c r="F23" s="21">
         <v>1</v>
       </c>
       <c r="G23" s="17">
-        <f>E23*F23</f>
+        <f t="shared" si="1"/>
         <v>270</v>
       </c>
     </row>
@@ -3785,14 +3861,14 @@
         <v>302.89999999999998</v>
       </c>
       <c r="E24" s="17">
-        <f>D24-(D24*$I$4)</f>
+        <f t="shared" si="0"/>
         <v>272.60999999999996</v>
       </c>
       <c r="F24" s="21">
         <v>2</v>
       </c>
       <c r="G24" s="17">
-        <f>E24*F24</f>
+        <f t="shared" si="1"/>
         <v>545.21999999999991</v>
       </c>
     </row>
@@ -3810,14 +3886,14 @@
         <v>299.89999999999998</v>
       </c>
       <c r="E25" s="17">
-        <f>D25-(D25*$I$4)</f>
+        <f t="shared" si="0"/>
         <v>269.90999999999997</v>
       </c>
       <c r="F25" s="21">
         <v>1</v>
       </c>
       <c r="G25" s="17">
-        <f>E25*F25</f>
+        <f t="shared" si="1"/>
         <v>269.90999999999997</v>
       </c>
     </row>
@@ -3835,14 +3911,14 @@
         <v>249.9</v>
       </c>
       <c r="E26" s="17">
-        <f>D26-(D26*$I$4)</f>
+        <f t="shared" si="0"/>
         <v>224.91</v>
       </c>
       <c r="F26" s="21">
         <v>1</v>
       </c>
       <c r="G26" s="17">
-        <f>E26*F26</f>
+        <f t="shared" si="1"/>
         <v>224.91</v>
       </c>
     </row>
@@ -3860,14 +3936,14 @@
         <v>259.89999999999998</v>
       </c>
       <c r="E27" s="17">
-        <f>D27-(D27*$I$4)</f>
+        <f t="shared" si="0"/>
         <v>233.90999999999997</v>
       </c>
       <c r="F27" s="21">
         <v>2</v>
       </c>
       <c r="G27" s="17">
-        <f>E27*F27</f>
+        <f t="shared" si="1"/>
         <v>467.81999999999994</v>
       </c>
     </row>
@@ -3885,14 +3961,14 @@
         <v>299.89999999999998</v>
       </c>
       <c r="E28" s="17">
-        <f>D28-(D28*$I$4)</f>
+        <f t="shared" si="0"/>
         <v>269.90999999999997</v>
       </c>
       <c r="F28" s="21">
         <v>1</v>
       </c>
       <c r="G28" s="17">
-        <f>E28*F28</f>
+        <f t="shared" si="1"/>
         <v>269.90999999999997</v>
       </c>
     </row>
@@ -3910,14 +3986,14 @@
         <v>349.9</v>
       </c>
       <c r="E29" s="17">
-        <f>D29-(D29*$I$4)</f>
+        <f t="shared" si="0"/>
         <v>314.90999999999997</v>
       </c>
       <c r="F29" s="21">
         <v>2</v>
       </c>
       <c r="G29" s="17">
-        <f>E29*F29</f>
+        <f t="shared" si="1"/>
         <v>629.81999999999994</v>
       </c>
     </row>
@@ -3935,14 +4011,14 @@
         <v>399.9</v>
       </c>
       <c r="E30" s="17">
-        <f>D30-(D30*$I$4)</f>
+        <f t="shared" si="0"/>
         <v>359.90999999999997</v>
       </c>
       <c r="F30" s="21">
         <v>3</v>
       </c>
       <c r="G30" s="17">
-        <f>E30*F30</f>
+        <f t="shared" si="1"/>
         <v>1079.73</v>
       </c>
     </row>
@@ -3960,14 +4036,14 @@
         <v>249.9</v>
       </c>
       <c r="E31" s="17">
-        <f>D31-(D31*$I$4)</f>
+        <f t="shared" si="0"/>
         <v>224.91</v>
       </c>
       <c r="F31" s="21">
         <v>5</v>
       </c>
       <c r="G31" s="17">
-        <f>E31*F31</f>
+        <f t="shared" si="1"/>
         <v>1124.55</v>
       </c>
     </row>
@@ -3985,14 +4061,14 @@
         <v>255</v>
       </c>
       <c r="E32" s="17">
-        <f>D32-(D32*$I$4)</f>
+        <f t="shared" si="0"/>
         <v>229.5</v>
       </c>
       <c r="F32" s="21">
         <v>3</v>
       </c>
       <c r="G32" s="17">
-        <f>E32*F32</f>
+        <f t="shared" si="1"/>
         <v>688.5</v>
       </c>
     </row>
@@ -4010,14 +4086,14 @@
         <v>259.89999999999998</v>
       </c>
       <c r="E33" s="17">
-        <f>D33-(D33*$I$4)</f>
+        <f t="shared" si="0"/>
         <v>233.90999999999997</v>
       </c>
       <c r="F33" s="21">
         <v>1</v>
       </c>
       <c r="G33" s="17">
-        <f>E33*F33</f>
+        <f t="shared" si="1"/>
         <v>233.90999999999997</v>
       </c>
     </row>
@@ -4035,14 +4111,14 @@
         <v>199.9</v>
       </c>
       <c r="E34" s="17">
-        <f>D34-(D34*$I$4)</f>
+        <f t="shared" si="0"/>
         <v>179.91</v>
       </c>
       <c r="F34" s="21">
         <v>0</v>
       </c>
       <c r="G34" s="17">
-        <f>E34*F34</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4060,14 +4136,14 @@
         <v>249.9</v>
       </c>
       <c r="E35" s="17">
-        <f>D35-(D35*$I$4)</f>
+        <f t="shared" si="0"/>
         <v>224.91</v>
       </c>
       <c r="F35" s="21">
         <v>1</v>
       </c>
       <c r="G35" s="17">
-        <f>E35*F35</f>
+        <f t="shared" si="1"/>
         <v>224.91</v>
       </c>
     </row>
@@ -4085,14 +4161,14 @@
         <v>259.89999999999998</v>
       </c>
       <c r="E36" s="17">
-        <f>D36-(D36*$I$4)</f>
+        <f t="shared" si="0"/>
         <v>233.90999999999997</v>
       </c>
       <c r="F36" s="21">
         <v>0</v>
       </c>
       <c r="G36" s="17">
-        <f>E36*F36</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4110,14 +4186,14 @@
         <v>89.9</v>
       </c>
       <c r="E37" s="17">
-        <f>D37-(D37*$I$4)</f>
+        <f t="shared" si="0"/>
         <v>80.910000000000011</v>
       </c>
       <c r="F37" s="21">
         <v>3</v>
       </c>
       <c r="G37" s="17">
-        <f>E37*F37</f>
+        <f t="shared" si="1"/>
         <v>242.73000000000002</v>
       </c>
     </row>
@@ -4135,14 +4211,14 @@
         <v>91.4</v>
       </c>
       <c r="E38" s="17">
-        <f>D38-(D38*$I$4)</f>
+        <f t="shared" si="0"/>
         <v>82.26</v>
       </c>
       <c r="F38" s="21">
         <v>2</v>
       </c>
       <c r="G38" s="17">
-        <f>E38*F38</f>
+        <f t="shared" si="1"/>
         <v>164.52</v>
       </c>
     </row>
@@ -4160,14 +4236,14 @@
         <v>93.5</v>
       </c>
       <c r="E39" s="17">
-        <f>D39-(D39*$I$4)</f>
+        <f t="shared" si="0"/>
         <v>84.15</v>
       </c>
       <c r="F39" s="21">
         <v>2</v>
       </c>
       <c r="G39" s="17">
-        <f>E39*F39</f>
+        <f t="shared" si="1"/>
         <v>168.3</v>
       </c>
     </row>
@@ -4185,14 +4261,14 @@
         <v>140</v>
       </c>
       <c r="E40" s="17">
-        <f>D40-(D40*$I$4)</f>
+        <f t="shared" si="0"/>
         <v>126</v>
       </c>
       <c r="F40" s="21">
         <v>2</v>
       </c>
       <c r="G40" s="17">
-        <f>E40*F40</f>
+        <f t="shared" si="1"/>
         <v>252</v>
       </c>
     </row>
@@ -4210,14 +4286,14 @@
         <v>142.9</v>
       </c>
       <c r="E41" s="17">
-        <f>D41-(D41*$I$4)</f>
+        <f t="shared" si="0"/>
         <v>128.61000000000001</v>
       </c>
       <c r="F41" s="21">
         <v>2</v>
       </c>
       <c r="G41" s="17">
-        <f>E41*F41</f>
+        <f t="shared" si="1"/>
         <v>257.22000000000003</v>
       </c>
     </row>
@@ -4235,14 +4311,14 @@
         <v>146</v>
       </c>
       <c r="E42" s="18">
-        <f>D42-(D42*$I$4)</f>
+        <f t="shared" si="0"/>
         <v>131.4</v>
       </c>
       <c r="F42" s="22">
         <v>2</v>
       </c>
       <c r="G42" s="18">
-        <f>E42*F42</f>
+        <f t="shared" si="1"/>
         <v>262.8</v>
       </c>
     </row>
@@ -4256,11 +4332,11 @@
       <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="35"/>
-      <c r="C44" s="36"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="39"/>
       <c r="D44" s="24">
         <f>SUM(D4:D42)</f>
         <v>5962.2999999999984</v>
@@ -4298,11 +4374,80 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D385B69-1D6D-4736-AA8C-E002AF1AD43B}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D2" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="46"/>
+    </row>
+    <row r="3" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="44">
+        <f>COUNTIF(Produtos!F4:F42,"&gt;0")</f>
+        <v>37</v>
+      </c>
+      <c r="C4" s="44">
+        <f>Produtos!F44</f>
+        <v>196</v>
+      </c>
+      <c r="D4" s="44">
+        <f>COUNTIF(Int_Nome_Produto,D2)</f>
+        <v>6</v>
+      </c>
+      <c r="E4" s="44">
+        <f>SUMIF(Int_Nome_Produto,D2,int_Qtd)</f>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7326DF80-0DFA-4F65-BD4E-022C0B3B8C1C}">
   <dimension ref="B1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4317,15 +4462,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="35" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="36" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="22" t="s">
@@ -4545,12 +4690,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1525D4F-4FEE-4357-9658-5E1916B70D88}">
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4567,15 +4712,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="2" spans="1:9" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
@@ -5623,7 +5768,49 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E530DD-BD21-46D7-8036-4A7C49A06075}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:3" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="44">
+        <f>COUNTIF(Tabela5[Qtd],"&gt;0")</f>
+        <v>37</v>
+      </c>
+      <c r="C4" s="44">
+        <f>Tabela5[[#Totals],[Qtd]]</f>
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D76905C-547A-4F6E-A046-A2B2ECB578CD}">
   <dimension ref="A2:G4"/>
   <sheetViews>

--- a/02-Meteora_Ecommerce _Funcoes.xlsx
+++ b/02-Meteora_Ecommerce _Funcoes.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Meu Drive (mz.tears.of.time@gmail.com)\Dev\Cursos\Curso-003\001 - Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D292C8-F2B8-4DF4-97BA-22B0E1A586F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CFA124-CB4B-46E9-A602-59248A06A61F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34260" yWindow="-120" windowWidth="20640" windowHeight="11040" firstSheet="1" activeTab="3" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
+    <workbookView xWindow="35190" yWindow="-120" windowWidth="20640" windowHeight="11040" firstSheet="1" activeTab="6" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
   </bookViews>
   <sheets>
     <sheet name="Meu Gráfico" sheetId="6" r:id="rId1"/>
     <sheet name="Planilha3" sheetId="5" r:id="rId2"/>
     <sheet name="Produtos" sheetId="1" r:id="rId3"/>
-    <sheet name="Planilha1" sheetId="9" r:id="rId4"/>
+    <sheet name="Números" sheetId="9" r:id="rId4"/>
     <sheet name="Filtro_Avançado" sheetId="8" r:id="rId5"/>
     <sheet name="Produtos (Com Tabela)" sheetId="2" r:id="rId6"/>
-    <sheet name="Planilha2" sheetId="10" r:id="rId7"/>
-    <sheet name="Obs" sheetId="7" r:id="rId8"/>
+    <sheet name="Números (2)" sheetId="11" r:id="rId7"/>
+    <sheet name="Planilha2" sheetId="10" r:id="rId8"/>
+    <sheet name="Obs" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Produtos!$A$3:$G$42</definedName>
@@ -34,7 +35,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="49">
   <si>
     <t>Produtos</t>
   </si>
@@ -188,7 +189,10 @@
     <t>Soma de Qtde em Estoque</t>
   </si>
   <si>
-    <t>Tênis*</t>
+    <t>Média de Qtde em Estoques</t>
+  </si>
+  <si>
+    <t>Todos os Produtos</t>
   </si>
 </sst>
 </file>
@@ -198,7 +202,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,14 +295,6 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -314,7 +310,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,12 +343,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -672,12 +674,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" applyNumberFormat="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -757,6 +785,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -769,25 +805,34 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Estilo 1" xfId="2" xr:uid="{E6C4BEE1-72DB-40A6-8DBF-9315934E6A20}"/>
+    <cellStyle name="Estilo 2" xfId="3" xr:uid="{C436E96A-EAE8-4F3B-93E7-6EEE3CB80F6E}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -2173,7 +2218,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9640957" cy="6013174"/>
+    <xdr:ext cx="9647599" cy="6016782"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -2788,7 +2833,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9DDBCA65-023C-4EC1-98AB-9D3EFD52E7AF}" name="Tabela5" displayName="Tabela5" ref="A3:G43" totalsRowCount="1" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9DDBCA65-023C-4EC1-98AB-9D3EFD52E7AF}" name="Tb_Produtos" displayName="Tb_Produtos" ref="A3:G43" totalsRowCount="1" headerRowDxfId="12">
   <autoFilter ref="A3:G42" xr:uid="{640CC6A1-AF7E-46D2-9BE4-A70B821B6028}"/>
   <sortState ref="A4:G42">
     <sortCondition ref="F3:F42"/>
@@ -3281,9 +3326,9 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="91" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C45" sqref="C45"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3298,16 +3343,16 @@
     <col min="9" max="9" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="1:9" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
@@ -3319,25 +3364,25 @@
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
       <c r="I3" s="29" t="s">
@@ -4332,11 +4377,11 @@
       <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="37" t="s">
+      <c r="A44" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="39"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="43"/>
       <c r="D44" s="24">
         <f>SUM(D4:D42)</f>
         <v>5962.2999999999984</v>
@@ -4375,69 +4420,98 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D385B69-1D6D-4736-AA8C-E002AF1AD43B}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="F1" s="37" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D2" s="45" t="s">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="51"/>
+      <c r="F2" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+    </row>
+    <row r="3" spans="1:8" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="46"/>
-    </row>
-    <row r="3" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="43" t="s">
+      <c r="F3" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="G3" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="44">
+      <c r="H3" s="48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="40">
         <f>COUNTIF(Produtos!F4:F42,"&gt;0")</f>
         <v>37</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="40">
         <f>Produtos!F44</f>
         <v>196</v>
       </c>
-      <c r="D4" s="44">
-        <f>COUNTIF(Int_Nome_Produto,D2)</f>
-        <v>6</v>
-      </c>
-      <c r="E4" s="44">
-        <f>SUMIF(Int_Nome_Produto,D2,int_Qtd)</f>
-        <v>10</v>
+      <c r="D4" s="52">
+        <f>AVERAGE(Produtos!F4:F42)</f>
+        <v>5.0256410256410255</v>
+      </c>
+      <c r="F4" s="40">
+        <f>COUNTIF(Int_Nome_Produto,F2)</f>
+        <v>3</v>
+      </c>
+      <c r="G4" s="40">
+        <f>SUMIF(Int_Nome_Produto,F2,int_Qtd)</f>
+        <v>28</v>
+      </c>
+      <c r="H4" s="52">
+        <f>AVERAGEIF(Int_Nome_Produto,F2,int_Qtd)</f>
+        <v>9.3333333333333339</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D2:E2"/>
+  <mergeCells count="2">
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B2:D2"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Erro de digitação" error="Este produto não está na tabela original." sqref="F2" xr:uid="{78A66851-B894-4AD8-AFC5-D5ADB74E8FB9}">
+      <formula1>Int_Nome_Produto</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -4695,7 +4769,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4712,15 +4786,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="2" spans="1:9" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
@@ -5740,19 +5814,19 @@
         <v>17</v>
       </c>
       <c r="D43" s="16">
-        <f>SUBTOTAL(109,Tabela5[Preço Unitário])</f>
+        <f>SUBTOTAL(109,Tb_Produtos[Preço Unitário])</f>
         <v>5962.2999999999938</v>
       </c>
       <c r="E43" s="16">
-        <f>SUBTOTAL(109,Tabela5[Preço C/ Desconto])</f>
+        <f>SUBTOTAL(109,Tb_Produtos[Preço C/ Desconto])</f>
         <v>5366.07</v>
       </c>
       <c r="F43" s="1">
-        <f>SUBTOTAL(109,Tabela5[Qtd])</f>
+        <f>SUBTOTAL(109,Tb_Produtos[Qtd])</f>
         <v>196</v>
       </c>
       <c r="G43" s="16">
-        <f>SUBTOTAL(109,Tabela5[Valor Total])</f>
+        <f>SUBTOTAL(109,Tb_Produtos[Valor Total])</f>
         <v>15382.08</v>
       </c>
     </row>
@@ -5769,6 +5843,104 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B462B9-13F3-40CB-9E8F-DBAF46B6AEFA}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="51"/>
+      <c r="F2" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+    </row>
+    <row r="3" spans="1:8" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="40">
+        <f>COUNTIF(Tb_Produtos[Qtd],"&gt;0")</f>
+        <v>37</v>
+      </c>
+      <c r="C4" s="40">
+        <f>Tb_Produtos[[#Totals],[Qtd]]</f>
+        <v>196</v>
+      </c>
+      <c r="D4" s="52">
+        <f>AVERAGE(Tb_Produtos[Qtd])</f>
+        <v>5.0256410256410255</v>
+      </c>
+      <c r="F4" s="40">
+        <f>COUNTIF(Tb_Produtos[Produtos],'Números (2)'!F2)</f>
+        <v>3</v>
+      </c>
+      <c r="G4" s="40">
+        <f>SUMIF(Tb_Produtos[Produtos],'Números (2)'!F2,Tb_Produtos[Qtd])</f>
+        <v>28</v>
+      </c>
+      <c r="H4" s="52">
+        <f>AVERAGEIF(Tb_Produtos[Produtos],F2,Tb_Produtos[Qtd])</f>
+        <v>9.3333333333333339</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+  </mergeCells>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Erro de digitação" error="Este produto não está na tabela original." sqref="F2" xr:uid="{98E80318-C665-42FF-BC59-326DAD440C4D}">
+      <formula1>Int_Nome_Produto</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E530DD-BD21-46D7-8036-4A7C49A06075}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -5782,26 +5954,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="38" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="44">
-        <f>COUNTIF(Tabela5[Qtd],"&gt;0")</f>
+      <c r="B4" s="40">
+        <f>COUNTIF(Tb_Produtos[Qtd],"&gt;0")</f>
         <v>37</v>
       </c>
-      <c r="C4" s="44">
-        <f>Tabela5[[#Totals],[Qtd]]</f>
+      <c r="C4" s="40">
+        <f>Tb_Produtos[[#Totals],[Qtd]]</f>
         <v>196</v>
       </c>
     </row>
@@ -5810,7 +5982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D76905C-547A-4F6E-A046-A2B2ECB578CD}">
   <dimension ref="A2:G4"/>
   <sheetViews>
